--- a/src/NamedRangeTestApp/Data/testExcel.xlsx
+++ b/src/NamedRangeTestApp/Data/testExcel.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>1</t>
   </si>
@@ -60,25 +60,22 @@
     <t>ASD</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>wdfg</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -427,38 +424,40 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="0" t="s">
         <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
